--- a/Parabank/src/test/resources/data/invalid login data.xlsx
+++ b/Parabank/src/test/resources/data/invalid login data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>user name</t>
   </si>
@@ -25,25 +25,10 @@
     <t>message</t>
   </si>
   <si>
-    <t>12'</t>
-  </si>
-  <si>
-    <t>34'</t>
-  </si>
-  <si>
     <t>An internal error has occurred and has been logged.</t>
   </si>
   <si>
-    <t>'12'</t>
-  </si>
-  <si>
-    <t>Please enter a username and password.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>'34'</t>
   </si>
 </sst>
 </file>
@@ -52,11 +37,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,9 +50,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,6 +67,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -94,16 +108,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,23 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +147,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -149,6 +169,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -159,53 +187,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,25 +210,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,43 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,109 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +401,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,6 +430,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,8 +487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,189 +496,161 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,113 +970,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="43.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
